--- a/Excels/DDoerEvent表.xlsx
+++ b/Excels/DDoerEvent表.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -100,7 +100,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>array</t>
+    <t>string[]</t>
   </si>
   <si>
     <t>id</t>
@@ -172,10 +172,13 @@
     <t>["1"]</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>#name doerEventStep</t>
   </si>
   <si>
-    <t>json</t>
+    <t>dict&lt;string,string&gt;</t>
   </si>
   <si>
     <t>execute_condition</t>
@@ -279,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -305,14 +308,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,7 +331,66 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -342,8 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,22 +415,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,54 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,13 +451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -474,37 +477,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,145 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +690,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,7 +725,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,16 +746,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,21 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -785,151 +788,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,13 +1298,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
@@ -1336,7 +1339,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="13.5" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1450,6 +1453,11 @@
       </c>
       <c r="J5" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1465,8 +1473,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1494,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1543,13 +1551,13 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>5</v>
@@ -1584,40 +1592,40 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1637,40 +1645,40 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:17">
@@ -1678,33 +1686,33 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>

--- a/Excels/DDoerEvent表.xlsx
+++ b/Excels/DDoerEvent表.xlsx
@@ -83,12 +83,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name doerEvent</t>
+    <t>#name CfgDoerEvent</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -109,28 +109,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>is_not_open</t>
-  </si>
-  <si>
-    <t>is_not_talk</t>
-  </si>
-  <si>
-    <t>trigger_condition</t>
-  </si>
-  <si>
-    <t>trigger_desc</t>
-  </si>
-  <si>
-    <t>can_not_trigger_desc</t>
-  </si>
-  <si>
-    <t>class_path_lua</t>
-  </si>
-  <si>
-    <t>class_path_cs</t>
-  </si>
-  <si>
-    <t>step_ids</t>
+    <t>isNotOpen</t>
+  </si>
+  <si>
+    <t>isNotTalk</t>
+  </si>
+  <si>
+    <t>triggerCondition</t>
+  </si>
+  <si>
+    <t>triggerDesc</t>
+  </si>
+  <si>
+    <t>canNotTriggerDesc</t>
+  </si>
+  <si>
+    <t>classPathLua</t>
+  </si>
+  <si>
+    <t>classPathCs</t>
+  </si>
+  <si>
+    <t>stepIds</t>
   </si>
   <si>
     <t>ID</t>
@@ -175,46 +175,49 @@
     <t>s</t>
   </si>
   <si>
-    <t>#name doerEventStep</t>
+    <t>#name CfgDoerEventStep</t>
   </si>
   <si>
     <t>dict&lt;string,string&gt;</t>
   </si>
   <si>
-    <t>execute_condition</t>
-  </si>
-  <si>
-    <t>execute_desc</t>
-  </si>
-  <si>
-    <t>can_not_execute_desc</t>
-  </si>
-  <si>
-    <t>is_stop_here</t>
-  </si>
-  <si>
-    <t>set_attr_dict</t>
-  </si>
-  <si>
-    <t>add_attr_dict</t>
-  </si>
-  <si>
-    <t>deal_item_dict</t>
-  </si>
-  <si>
-    <t>give_up_mission_ids</t>
-  </si>
-  <si>
-    <t>accept_mission_ids</t>
-  </si>
-  <si>
-    <t>finish_mission_ids</t>
-  </si>
-  <si>
-    <t>add_finished_mission_ids</t>
-  </si>
-  <si>
-    <t>remove_finished_mission_ids</t>
+    <t>isCanNotTriggerDesc</t>
+  </si>
+  <si>
+    <t>executeCondition</t>
+  </si>
+  <si>
+    <t>executeDesc</t>
+  </si>
+  <si>
+    <t>isCanNotExecuteDesc</t>
+  </si>
+  <si>
+    <t>isStopHere</t>
+  </si>
+  <si>
+    <t>setAttrDict</t>
+  </si>
+  <si>
+    <t>addAttrDict</t>
+  </si>
+  <si>
+    <t>dealItemDict</t>
+  </si>
+  <si>
+    <t>giveUpMissionIds</t>
+  </si>
+  <si>
+    <t>acceptMissionIds</t>
+  </si>
+  <si>
+    <t>finishMissionIds</t>
+  </si>
+  <si>
+    <t>addFinishedMissionIds</t>
+  </si>
+  <si>
+    <t>removeFinishedMissionIds</t>
   </si>
   <si>
     <t>执行条件</t>
@@ -282,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -308,7 +311,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,89 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -413,44 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -477,13 +480,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,13 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,43 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,103 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,10 +689,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -712,50 +765,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,165 +786,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1339,7 +1342,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="13.5" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1474,7 +1477,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1589,43 +1592,43 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1645,40 +1648,40 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:17">
@@ -1686,33 +1689,33 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>

--- a/Excels/DDoerEvent表.xlsx
+++ b/Excels/DDoerEvent表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DDoerEvent表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,19 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +66,19 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,45 +107,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name CfgDoerEvent</t>
-  </si>
-  <si>
-    <t>#index unique id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>isNotOpen</t>
-  </si>
-  <si>
-    <t>isNotTalk</t>
-  </si>
-  <si>
-    <t>triggerCondition</t>
-  </si>
-  <si>
-    <t>triggerDesc</t>
-  </si>
-  <si>
-    <t>canNotTriggerDesc</t>
+    <t>defualt</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>isOutput</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>CfgDoerEvent</t>
+  </si>
+  <si>
+    <t>outputDir</t>
+  </si>
+  <si>
+    <t>uniqueIndexesList</t>
+  </si>
+  <si>
+    <t>multiplyIndexesList</t>
+  </si>
+  <si>
+    <t>headCommentRowIndex</t>
+  </si>
+  <si>
+    <t>headRowIndex</t>
+  </si>
+  <si>
+    <t>dataStartRowIndex</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>是否不打开</t>
+  </si>
+  <si>
+    <t>是否不弹窗提示</t>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>触发提示</t>
+  </si>
+  <si>
+    <t>不触发提示</t>
   </si>
   <si>
     <t>classPathLua</t>
@@ -130,33 +181,42 @@
     <t>classPathCs</t>
   </si>
   <si>
-    <t>stepIds</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>是否不打开</t>
-  </si>
-  <si>
-    <t>是否不弹窗提示</t>
-  </si>
-  <si>
-    <t>触发条件</t>
-  </si>
-  <si>
-    <t>触发提示</t>
-  </si>
-  <si>
-    <t>不触发提示</t>
-  </si>
-  <si>
     <t>子步骤ids</t>
   </si>
   <si>
+    <t>id(string)</t>
+  </si>
+  <si>
+    <t>name(string)</t>
+  </si>
+  <si>
+    <t>isNotOpen(bool)</t>
+  </si>
+  <si>
+    <t>isNotTalk(bool)</t>
+  </si>
+  <si>
+    <t>triggerCondition(string)</t>
+  </si>
+  <si>
+    <t>triggerDesc(string)</t>
+  </si>
+  <si>
+    <t>canNotTriggerDesc(string)</t>
+  </si>
+  <si>
+    <t>classPathLua(string)</t>
+  </si>
+  <si>
+    <t>classPathCs(string)</t>
+  </si>
+  <si>
+    <t>stepIds(json)</t>
+  </si>
+  <si>
+    <t>stepIds(string[])</t>
+  </si>
+  <si>
     <t>事件1</t>
   </si>
   <si>
@@ -172,52 +232,7 @@
     <t>["1"]</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>#name CfgDoerEventStep</t>
-  </si>
-  <si>
-    <t>dict&lt;string,string&gt;</t>
-  </si>
-  <si>
-    <t>isCanNotTriggerDesc</t>
-  </si>
-  <si>
-    <t>executeCondition</t>
-  </si>
-  <si>
-    <t>executeDesc</t>
-  </si>
-  <si>
-    <t>isCanNotExecuteDesc</t>
-  </si>
-  <si>
-    <t>isStopHere</t>
-  </si>
-  <si>
-    <t>setAttrDict</t>
-  </si>
-  <si>
-    <t>addAttrDict</t>
-  </si>
-  <si>
-    <t>dealItemDict</t>
-  </si>
-  <si>
-    <t>giveUpMissionIds</t>
-  </si>
-  <si>
-    <t>acceptMissionIds</t>
-  </si>
-  <si>
-    <t>finishMissionIds</t>
-  </si>
-  <si>
-    <t>addFinishedMissionIds</t>
-  </si>
-  <si>
-    <t>removeFinishedMissionIds</t>
+    <t xml:space="preserve"> CfgDoerEventStep</t>
   </si>
   <si>
     <t>执行条件</t>
@@ -254,6 +269,69 @@
   </si>
   <si>
     <t>删除已完成的任务ids</t>
+  </si>
+  <si>
+    <t>isCanNotTriggerDesc(string)</t>
+  </si>
+  <si>
+    <t>executeCondition(string)</t>
+  </si>
+  <si>
+    <t>executeDesc(string)</t>
+  </si>
+  <si>
+    <t>isCanNotExecuteDesc(string)</t>
+  </si>
+  <si>
+    <t>isStopHere(bool)</t>
+  </si>
+  <si>
+    <t>setAttrDict(json)</t>
+  </si>
+  <si>
+    <t>addAttrDict(json)</t>
+  </si>
+  <si>
+    <t>dealItemDict(json)</t>
+  </si>
+  <si>
+    <t>giveUpMissionIds(json)</t>
+  </si>
+  <si>
+    <t>acceptMissionIds(json)</t>
+  </si>
+  <si>
+    <t>finishMissionIds(json)</t>
+  </si>
+  <si>
+    <t>addFinishedMissionIds(json)</t>
+  </si>
+  <si>
+    <t>removeFinishedMissionIds(json)</t>
+  </si>
+  <si>
+    <t>setAttrDict(dict&lt;string,string&gt;)</t>
+  </si>
+  <si>
+    <t>addAttrDict(dict&lt;string,string&gt;)</t>
+  </si>
+  <si>
+    <t>dealItemDict(dict&lt;string,string&gt;)</t>
+  </si>
+  <si>
+    <t>giveUpMissionIds(string[])</t>
+  </si>
+  <si>
+    <t>acceptMissionIds(string[])</t>
+  </si>
+  <si>
+    <t>finishMissionIds(string[])</t>
+  </si>
+  <si>
+    <t>addFinishedMissionIds(string[])</t>
+  </si>
+  <si>
+    <t>removeFinishedMissionIds(string[])</t>
   </si>
   <si>
     <t>事件子步骤1</t>
@@ -285,9 +363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -311,7 +389,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,46 +472,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,29 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,21 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -468,13 +546,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399670400097659"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,37 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,139 +726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,26 +767,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,17 +815,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -763,6 +830,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -771,21 +864,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,153 +875,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,30 +1382,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="54.875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="23.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="4" customWidth="1"/>
+    <col min="3" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="54.875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,133 +1415,262 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" ht="13.5" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B9" s="2">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="J9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:10">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="10:10">
-      <c r="J9" s="3" t="s">
-        <v>29</v>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1474,254 +1684,376 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="15" width="20.375" customWidth="1"/>
-    <col min="16" max="16" width="27.125" customWidth="1"/>
-    <col min="17" max="17" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="11" width="36" customWidth="1"/>
+    <col min="12" max="12" width="37.125" customWidth="1"/>
+    <col min="13" max="15" width="29.375" customWidth="1"/>
+    <col min="16" max="16" width="34.875" customWidth="1"/>
+    <col min="17" max="17" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:17">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="P16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="2" t="s">
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:17">
-      <c r="A5" s="3">
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:17">
+      <c r="A19" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
